--- a/BotIscoSistemas/Dialogs/Qna/Sensebot.xlsx
+++ b/BotIscoSistemas/Dialogs/Qna/Sensebot.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="45">
   <si>
     <t>O que são bots?</t>
   </si>
@@ -53,6 +53,102 @@
   </si>
   <si>
     <t>Atendemos aos clientes apenas virtualmente, mas nosso endereço fiscal é Cap. Roberto Lopes Quintas, 124 , Curitiba, PR</t>
+  </si>
+  <si>
+    <t>do que eu preciso para emitir nota fiscal ?</t>
+  </si>
+  <si>
+    <t>Você precisa de um **sistema homologado**, de um certificado digital, apenas isso. Nós da Isco possuimos o sistema e lhe damos todo o suporte para você começar. :)</t>
+  </si>
+  <si>
+    <t>preciso do que para emitir nfe ?</t>
+  </si>
+  <si>
+    <t>é fácil instalar o sistema ?</t>
+  </si>
+  <si>
+    <t>Nosso sistema é baseado na Nuvem, você não precisa se preocupar com nada. :)</t>
+  </si>
+  <si>
+    <t>quanto custa o sistema de vocês ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Possuimos versões apartir de **R$ 69,90** por mês no plano **mensal**, mas consigo um desconto nos planos trimestrais e anuais.. </t>
+  </si>
+  <si>
+    <t>Tenho algum limite de uso ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Não, você pode usar sem limites, nós da Isco não gostamos de fronteiras.. :) </t>
+  </si>
+  <si>
+    <t>Quantas desjar, não temos limite...</t>
+  </si>
+  <si>
+    <t>Qual quantidade de notas posso emitir ?</t>
+  </si>
+  <si>
+    <t>O Sistema é online ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sim, nosso sistema é online, porém se precisar podemos instalar localmente também , mas não é aconselhável.... </t>
+  </si>
+  <si>
+    <t>O Sistema envia email das Notas ?</t>
+  </si>
+  <si>
+    <t>Sim, envia o PDF e o XML, também ao final do mês ele enviar o lote de Notas para o contador... Fácil né ?</t>
+  </si>
+  <si>
+    <t>O sistema envia o XML para o contador ?</t>
+  </si>
+  <si>
+    <t>Sim, e também para seu cliente...</t>
+  </si>
+  <si>
+    <t>Tem backup ?</t>
+  </si>
+  <si>
+    <t>Sim, quando o sistema é na nuvem,  fazemos backup de tudo...</t>
+  </si>
+  <si>
+    <t>hum.. Nesta versão não... Mas logo logo poderá...</t>
+  </si>
+  <si>
+    <t>Vocês possui suporte ?</t>
+  </si>
+  <si>
+    <t>Sim, todos nossos clientes tem suporte, e não pagam a mais por isso...</t>
+  </si>
+  <si>
+    <t>O Sistema é homologado ?</t>
+  </si>
+  <si>
+    <t>Posso acessar do celular ?</t>
+  </si>
+  <si>
+    <t>sistema para nota fiscal</t>
+  </si>
+  <si>
+    <t>Legal, possuímos um sistema para Nf-e/Nfc-e, apartir de **R$ 69,90** por mês, o acesso é Online então você não precisa se preocupar com nada, Suporte Técnico Ilimitado e Muito fácil de mexer.</t>
+  </si>
+  <si>
+    <t>queria ver um sistema para nota fiscal</t>
+  </si>
+  <si>
+    <t>preciso de um sistema para minha loja você tem ?</t>
+  </si>
+  <si>
+    <t>Sim, possuimos, vou lhe perguntar sobre seu contato ok ?</t>
+  </si>
+  <si>
+    <t>sistema para nota eletronica, voces tem ?</t>
+  </si>
+  <si>
+    <t>o sistema de vocês é caro ?</t>
+  </si>
+  <si>
+    <t>Devidamente. Não comercializamos nada sem homolgação da receita, é uma **segurança** a mais para você</t>
   </si>
 </sst>
 </file>
@@ -396,15 +492,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30" style="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5703125" style="1" customWidth="1"/>
     <col min="2" max="2" width="45.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -464,6 +560,150 @@
         <v>12</v>
       </c>
     </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/BotIscoSistemas/Dialogs/Qna/Sensebot.xlsx
+++ b/BotIscoSistemas/Dialogs/Qna/Sensebot.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
   <si>
     <t>O que são bots?</t>
   </si>
@@ -28,15 +28,9 @@
     <t xml:space="preserve">Quem é você ? </t>
   </si>
   <si>
-    <t>Eu sou o Agente Virtual da Isco. Eu ainda estou em treinamento e eu adoraria ajudá-lo. \n Você também pode pedir para conversar com uma pessoa a qualquer momento. Por favor, descreva brevemente o problema abaixo.</t>
-  </si>
-  <si>
     <t>O que você faz ?</t>
   </si>
   <si>
-    <t>Estou aprendendo a ajudar com o sistema, chamados, boletos, entre outros, tente digitar algo que precise</t>
-  </si>
-  <si>
     <t>Qual o telefone da Isco?</t>
   </si>
   <si>
@@ -149,6 +143,15 @@
   </si>
   <si>
     <t>Devidamente. Não comercializamos nada sem homolgação da receita, é uma **segurança** a mais para você</t>
+  </si>
+  <si>
+    <t>Oi, tudo bem ? eu sou a ***Ian*** 😎, sou uma *Agente Virtual.* \n  Ainda estou em treinamento, mas adoraria ajudá-lo 😍😍. Por favor, **descreva brevemente** do que você precisa...</t>
+  </si>
+  <si>
+    <t>Estou aprendendo muitas coisas, coma **Isco** como  ajudar com o sistema, abrir chamados, boletos, entre outros, tente digitar algo que precise...</t>
+  </si>
+  <si>
+    <t>Você precisa de um | aqui | auqi 2 | aqui 3 | aqui 4</t>
   </si>
 </sst>
 </file>
@@ -494,13 +497,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="39.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="45.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -509,7 +512,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>4</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -522,18 +525,18 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -541,167 +544,167 @@
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>4</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/BotIscoSistemas/Dialogs/Qna/Sensebot.xlsx
+++ b/BotIscoSistemas/Dialogs/Qna/Sensebot.xlsx
@@ -14,13 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
-  <si>
-    <t>O que são bots?</t>
-  </si>
-  <si>
-    <t>Um chat bot é um programa que interage com usuários, simulando o comportamento humano em uma conversação (reagindo à comandos, perguntas e respostas).</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="43">
   <si>
     <t>Você é Homem ou Mulher ?</t>
   </si>
@@ -34,124 +28,121 @@
     <t>Qual o telefone da Isco?</t>
   </si>
   <si>
-    <t>O Telefone da Isco é 41. 3156-4726.</t>
-  </si>
-  <si>
     <t>Que horas a isco abre ?</t>
   </si>
   <si>
-    <t>Estamos aberto das 08:00 as 17:30, mas você pode abrir um chamado a qualquer momento.</t>
-  </si>
-  <si>
-    <t>Qual endereço de você ?</t>
-  </si>
-  <si>
-    <t>Atendemos aos clientes apenas virtualmente, mas nosso endereço fiscal é Cap. Roberto Lopes Quintas, 124 , Curitiba, PR</t>
-  </si>
-  <si>
-    <t>do que eu preciso para emitir nota fiscal ?</t>
-  </si>
-  <si>
-    <t>Você precisa de um **sistema homologado**, de um certificado digital, apenas isso. Nós da Isco possuimos o sistema e lhe damos todo o suporte para você começar. :)</t>
-  </si>
-  <si>
-    <t>preciso do que para emitir nfe ?</t>
-  </si>
-  <si>
-    <t>é fácil instalar o sistema ?</t>
-  </si>
-  <si>
-    <t>Nosso sistema é baseado na Nuvem, você não precisa se preocupar com nada. :)</t>
-  </si>
-  <si>
-    <t>quanto custa o sistema de vocês ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Possuimos versões apartir de **R$ 69,90** por mês no plano **mensal**, mas consigo um desconto nos planos trimestrais e anuais.. </t>
-  </si>
-  <si>
     <t>Tenho algum limite de uso ?</t>
   </si>
   <si>
-    <t xml:space="preserve">Não, você pode usar sem limites, nós da Isco não gostamos de fronteiras.. :) </t>
-  </si>
-  <si>
-    <t>Quantas desjar, não temos limite...</t>
-  </si>
-  <si>
     <t>Qual quantidade de notas posso emitir ?</t>
   </si>
   <si>
     <t>O Sistema é online ?</t>
   </si>
   <si>
-    <t xml:space="preserve">Sim, nosso sistema é online, porém se precisar podemos instalar localmente também , mas não é aconselhável.... </t>
-  </si>
-  <si>
     <t>O Sistema envia email das Notas ?</t>
   </si>
   <si>
-    <t>Sim, envia o PDF e o XML, também ao final do mês ele enviar o lote de Notas para o contador... Fácil né ?</t>
-  </si>
-  <si>
     <t>O sistema envia o XML para o contador ?</t>
   </si>
   <si>
-    <t>Sim, e também para seu cliente...</t>
-  </si>
-  <si>
     <t>Tem backup ?</t>
   </si>
   <si>
-    <t>Sim, quando o sistema é na nuvem,  fazemos backup de tudo...</t>
-  </si>
-  <si>
-    <t>hum.. Nesta versão não... Mas logo logo poderá...</t>
-  </si>
-  <si>
     <t>Vocês possui suporte ?</t>
   </si>
   <si>
-    <t>Sim, todos nossos clientes tem suporte, e não pagam a mais por isso...</t>
-  </si>
-  <si>
     <t>O Sistema é homologado ?</t>
   </si>
   <si>
     <t>Posso acessar do celular ?</t>
   </si>
   <si>
-    <t>sistema para nota fiscal</t>
-  </si>
-  <si>
-    <t>Legal, possuímos um sistema para Nf-e/Nfc-e, apartir de **R$ 69,90** por mês, o acesso é Online então você não precisa se preocupar com nada, Suporte Técnico Ilimitado e Muito fácil de mexer.</t>
-  </si>
-  <si>
-    <t>queria ver um sistema para nota fiscal</t>
-  </si>
-  <si>
-    <t>preciso de um sistema para minha loja você tem ?</t>
-  </si>
-  <si>
-    <t>Sim, possuimos, vou lhe perguntar sobre seu contato ok ?</t>
-  </si>
-  <si>
-    <t>sistema para nota eletronica, voces tem ?</t>
-  </si>
-  <si>
-    <t>o sistema de vocês é caro ?</t>
-  </si>
-  <si>
-    <t>Devidamente. Não comercializamos nada sem homolgação da receita, é uma **segurança** a mais para você</t>
-  </si>
-  <si>
     <t>Oi, tudo bem ? eu sou a ***Ian*** 😎, sou uma *Agente Virtual.* \n  Ainda estou em treinamento, mas adoraria ajudá-lo 😍😍. Por favor, **descreva brevemente** do que você precisa...</t>
   </si>
   <si>
-    <t>Estou aprendendo muitas coisas, coma **Isco** como  ajudar com o sistema, abrir chamados, boletos, entre outros, tente digitar algo que precise...</t>
-  </si>
-  <si>
-    <t>Você precisa de um | aqui | auqi 2 | aqui 3 | aqui 4</t>
+    <t>Você é um robo ?</t>
+  </si>
+  <si>
+    <t>NovoAI</t>
+  </si>
+  <si>
+    <t>Titulo|subtitulo | descrição | enderecoImagem | endereocoUrl</t>
+  </si>
+  <si>
+    <t>Sou um programa de computador que utiliza **funções cognitivas** para entender o que você precisa, \n como por exemplo suporte técnico. \n Eu consigo simular o comportamento humano em uma conversação reagindo à ***comandos, perguntas e respostas***.</t>
+  </si>
+  <si>
+    <t>Você é um humano ?</t>
+  </si>
+  <si>
+    <t>Você é uma pessoa ?</t>
+  </si>
+  <si>
+    <t>Estou aprendendo muitas coisas, com a **Isco** como  \n * ajudar como sistema, \n * abrir chamados \n * boletos, entre outros, \n tente digitar algo que precise que tentarei entender o que é ...</t>
+  </si>
+  <si>
+    <t>O Telefone da Isco é 41. **3156-4726**</t>
+  </si>
+  <si>
+    <t>Estamos aberto das **08:00 as 17:30,** o pessoal para para almoço as **12:00**, mas eu não, pode falar o que quiser comigo a **qualquer momento**</t>
+  </si>
+  <si>
+    <t>Qual endereço de vocês ou da isco ?</t>
+  </si>
+  <si>
+    <t>Atendemos aos clientes apenas ***virtualmente***, mas nosso endereço fiscal é *Cap. Roberto Lopes Quintas, 124 , Curitiba, PR*</t>
+  </si>
+  <si>
+    <t>Do que eu preciso para emitir nota fiscal ?</t>
+  </si>
+  <si>
+    <t>Emissão de Notas|é muito fácil emitir| Você apenas precisa de: \n * Um sistema homologado na receita \n * Certificado Digital \n Aqui agente possui um sistema pronto para uso. \n É muit fácil de usar, além disso lhe damos suporte ilimitado e você ainda pode acessar de qualquer lugar... :)</t>
+  </si>
+  <si>
+    <t>Preciso do que para emitir nfe ?</t>
+  </si>
+  <si>
+    <t>Preciso instalar o sistema ?</t>
+  </si>
+  <si>
+    <t>Nuvem|Nuvem é tudo de bom | Nosso sistema é baseado na **Nuvem**, isso quer dizer TRANQUILIDADE para você, basta você ter acesso a internet e um computador, mas nada.. Muito fácil..</t>
+  </si>
+  <si>
+    <t>Quanto custa o sistema de vocês ?</t>
+  </si>
+  <si>
+    <t>Preço Justo | 1 Café por dia | Possuimos versões apartir de **R$ 69,90** por mês no plano **mensal**, mas se você optar pelos planos ***trimestral*** ou ***anula*** eu consigo um desconto para você .</t>
+  </si>
+  <si>
+    <t>O sistema de vocês é caro ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sem limites | Sem fronteiras | Imagina, você pode usar e emitr ***quantas notas desejar*** sem limites, nós da Isco não gostamos de fronteiras.. :) </t>
+  </si>
+  <si>
+    <t>Limites ? | Nunca Mais | Quantas desejar, não temos limite... Você pode usar e emitr ***quantas notas desejar*** sem limites...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nuvem | Acesso Online | Sim, nosso **sistema é online**, você pode acessar através do seu PC de qualquer lugar do mundo, basta possuir acesso a internet... </t>
+  </si>
+  <si>
+    <t>Conveniência | Seu cliente agradece | Sim envia o ***PDF*** e o ***XML*** para endereço de email do seu cliente, também ao final do *mês* ele enviar o lote de Notas emitidas para o seu contador... É muito fácil...</t>
+  </si>
+  <si>
+    <t>Conveniência | Seu contador  agradece | Sim, ao final de cada mês o sistema envia o ***LOTE DE XML*** para SEU CONTADOR, além disso envia um resumo das notas emitidas.</t>
+  </si>
+  <si>
+    <t>Segurnaça | backup sempre | Quando o sistema é na **nuvem** todo o backup é por nossa conta...</t>
+  </si>
+  <si>
+    <t>Hum, infelizmente nesta versão ainda não é possível. Mas estamos preparando um vesão novinha que será possível.</t>
+  </si>
+  <si>
+    <t>Segurança | Suporte | Sim, todos **nossos clientes** tem suporte, e não pagam a mais por isso...</t>
+  </si>
+  <si>
+    <t>Segurança | Seu negócio é importante | Devidamente. **Não comercializamos nada sem homolgação da receita**, isso é uma grande segurança para seu negócio nunca parar ...</t>
   </si>
 </sst>
 </file>
@@ -495,216 +486,208 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="40.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="45.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>43</v>
+        <v>16</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
         <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>43</v>
+        <v>20</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>10</v>
+        <v>2</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>45</v>
+      <c r="A8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>13</v>
+      <c r="A9" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>14</v>
+      <c r="A10" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>18</v>
+      <c r="A13" t="s">
+        <v>29</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>21</v>
+      <c r="A14" t="s">
+        <v>31</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>22</v>
+      <c r="A15" t="s">
+        <v>33</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>37</v>
+      <c r="A23" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>38</v>
+      <c r="A24" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/BotIscoSistemas/Dialogs/Qna/Sensebot.xlsx
+++ b/BotIscoSistemas/Dialogs/Qna/Sensebot.xlsx
@@ -133,9 +133,6 @@
     <t>Conveniência | Seu contador  agradece | Sim, ao final de cada mês o sistema envia o ***LOTE DE XML*** para SEU CONTADOR, além disso envia um resumo das notas emitidas.</t>
   </si>
   <si>
-    <t>Segurnaça | backup sempre | Quando o sistema é na **nuvem** todo o backup é por nossa conta...</t>
-  </si>
-  <si>
     <t>Hum, infelizmente nesta versão ainda não é possível. Mas estamos preparando um vesão novinha que será possível.</t>
   </si>
   <si>
@@ -143,6 +140,9 @@
   </si>
   <si>
     <t>Segurança | Seu negócio é importante | Devidamente. **Não comercializamos nada sem homolgação da receita**, isso é uma grande segurança para seu negócio nunca parar ...</t>
+  </si>
+  <si>
+    <t>Segurança | Backup Sempre | Quando o sistema é na **nuvem** todo o backup é por nossa conta... Você não se preocupa com nada...</t>
   </si>
 </sst>
 </file>
@@ -489,7 +489,7 @@
   <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -663,7 +663,7 @@
         <v>10</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -671,7 +671,7 @@
         <v>13</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -679,7 +679,7 @@
         <v>11</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -687,7 +687,7 @@
         <v>12</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/BotIscoSistemas/Dialogs/Qna/Sensebot.xlsx
+++ b/BotIscoSistemas/Dialogs/Qna/Sensebot.xlsx
@@ -97,52 +97,52 @@
     <t>Do que eu preciso para emitir nota fiscal ?</t>
   </si>
   <si>
-    <t>Emissão de Notas|é muito fácil emitir| Você apenas precisa de: \n * Um sistema homologado na receita \n * Certificado Digital \n Aqui agente possui um sistema pronto para uso. \n É muit fácil de usar, além disso lhe damos suporte ilimitado e você ainda pode acessar de qualquer lugar... :)</t>
-  </si>
-  <si>
     <t>Preciso do que para emitir nfe ?</t>
   </si>
   <si>
     <t>Preciso instalar o sistema ?</t>
   </si>
   <si>
-    <t>Nuvem|Nuvem é tudo de bom | Nosso sistema é baseado na **Nuvem**, isso quer dizer TRANQUILIDADE para você, basta você ter acesso a internet e um computador, mas nada.. Muito fácil..</t>
-  </si>
-  <si>
     <t>Quanto custa o sistema de vocês ?</t>
   </si>
   <si>
-    <t>Preço Justo | 1 Café por dia | Possuimos versões apartir de **R$ 69,90** por mês no plano **mensal**, mas se você optar pelos planos ***trimestral*** ou ***anula*** eu consigo um desconto para você .</t>
-  </si>
-  <si>
     <t>O sistema de vocês é caro ?</t>
   </si>
   <si>
-    <t xml:space="preserve">Sem limites | Sem fronteiras | Imagina, você pode usar e emitr ***quantas notas desejar*** sem limites, nós da Isco não gostamos de fronteiras.. :) </t>
-  </si>
-  <si>
-    <t>Limites ? | Nunca Mais | Quantas desejar, não temos limite... Você pode usar e emitr ***quantas notas desejar*** sem limites...</t>
-  </si>
-  <si>
     <t xml:space="preserve">Nuvem | Acesso Online | Sim, nosso **sistema é online**, você pode acessar através do seu PC de qualquer lugar do mundo, basta possuir acesso a internet... </t>
   </si>
   <si>
-    <t>Conveniência | Seu cliente agradece | Sim envia o ***PDF*** e o ***XML*** para endereço de email do seu cliente, também ao final do *mês* ele enviar o lote de Notas emitidas para o seu contador... É muito fácil...</t>
-  </si>
-  <si>
-    <t>Conveniência | Seu contador  agradece | Sim, ao final de cada mês o sistema envia o ***LOTE DE XML*** para SEU CONTADOR, além disso envia um resumo das notas emitidas.</t>
-  </si>
-  <si>
     <t>Hum, infelizmente nesta versão ainda não é possível. Mas estamos preparando um vesão novinha que será possível.</t>
   </si>
   <si>
-    <t>Segurança | Suporte | Sim, todos **nossos clientes** tem suporte, e não pagam a mais por isso...</t>
-  </si>
-  <si>
-    <t>Segurança | Seu negócio é importante | Devidamente. **Não comercializamos nada sem homolgação da receita**, isso é uma grande segurança para seu negócio nunca parar ...</t>
-  </si>
-  <si>
-    <t>Segurança | Backup Sempre | Quando o sistema é na **nuvem** todo o backup é por nossa conta... Você não se preocupa com nada...</t>
+    <t>Você apenas precisa de: \n * Um sistema homologado na receita \n * Certificado Digital \n Aqui agente possui um sistema pronto para uso. \n É muit fácil de usar, além disso lhe damos suporte ilimitado e você ainda pode acessar de qualquer lugar... :)</t>
+  </si>
+  <si>
+    <t>Nosso sistema é baseado na **Nuvem**, isso quer dizer TRANQUILIDADE para você, basta você ter acesso a internet e um computador, mas nada.. Muito fácil..</t>
+  </si>
+  <si>
+    <t>Possuimos versões apartir de **R$ 69,90** por mês no plano **mensal**, mas se você optar pelos planos ***trimestral*** ou ***anula*** eu consigo um desconto para você .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Imagina, você pode usar e emitr ***quantas notas desejar*** sem limites, nós da Isco não gostamos de fronteiras.. :) </t>
+  </si>
+  <si>
+    <t>Quantas desejar, não temos limite... Você pode usar e emitr ***quantas notas desejar*** sem limites...</t>
+  </si>
+  <si>
+    <t>Sim envia o ***PDF*** e o ***XML*** para endereço de email do seu cliente, também ao final do *mês* ele enviar o lote de Notas emitidas para o seu contador... É muito fácil...</t>
+  </si>
+  <si>
+    <t>Sim, ao final de cada mês o sistema envia o ***LOTE DE XML*** para SEU CONTADOR, além disso envia um resumo das notas emitidas.</t>
+  </si>
+  <si>
+    <t>Quando o sistema é na **nuvem** todo o backup é por nossa conta... Você não se preocupa com nada...</t>
+  </si>
+  <si>
+    <t>Sim, todos **nossos clientes** tem suporte, e não pagam a mais por isso...</t>
+  </si>
+  <si>
+    <t>Devidamente. **Não comercializamos nada sem homolgação da receita**, isso é uma grande segurança para seu negócio nunca parar ...</t>
   </si>
 </sst>
 </file>
@@ -488,8 +488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -583,39 +583,39 @@
         <v>26</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -623,7 +623,7 @@
         <v>5</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -631,7 +631,7 @@
         <v>6</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -639,7 +639,7 @@
         <v>7</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -647,7 +647,7 @@
         <v>8</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -655,7 +655,7 @@
         <v>9</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -663,7 +663,7 @@
         <v>10</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -671,7 +671,7 @@
         <v>13</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -679,7 +679,7 @@
         <v>11</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -687,7 +687,7 @@
         <v>12</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
